--- a/03_Process/YA_8.3.xlsx
+++ b/03_Process/YA_8.3.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">Nombre del indicador</t>
   </si>
   <si>
-    <t xml:space="preserve">casos</t>
+    <t xml:space="preserve">numerador</t>
   </si>
   <si>
     <t xml:space="preserve">denominador</t>
